--- a/biology/Biologie cellulaire et moléculaire/Amgen/Amgen.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Amgen/Amgen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Amgen Inc (Applied Molecular Genetics) est une entreprise américaine leader mondial de l'industrie des biotechnologies médicales. Son siège est situé à Thousand Oaks en Californie.
@@ -513,15 +525,17 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors des années 1990, Amgen fait partie des sociétés devenues célèbres grâce à une attrait pour les capitalisations boursières des jeunes sociétés sans équivalent dans l'histoire, qui finit en krach.
 Fin 2011, Amgen a annoncé son arrivée dans la commercialisation de médicaments biosimilaires.
-En 2013, Amgen annonce le rachat d'Onyx Pharmaceuticals pour 10,4 milliards de dollars, Onyx Pharmaceuticals étant spécialisé dans l'oncologie[2].
-En septembre 2015, Amgen acquiert l'entreprise de biotechnologie Dezima Pharma, qui possède des traitements luttant contre le cholestérol  pour 300 millions de dollars[3].
-En 2016, elle est la cible d'une plainte du laboratoire pharmaceutique AbbVie, visant à l'empêcher de distribuer l'Amgevita, un médicament similaire à l'anti-inflammatoire Humira, nom commercial de la molécule Adalimumab[4],[5],[6]. L'Amgevita est disponible en France[7].
-En août 2019, Amgen annonce l'acquisition du traitement Otezla à Celgene pour 13,4 milliards de dollars pour permettre l'opération d'acquisition de Celgene par Bristol-Myers Squibb[8].
-En août 2022, Amgen annonce l'acquisition pour 3,7 milliards de dollars de ChemoCentryx, une entreprise spécialisée contre les troubles inflammatoires[9]. En décembre 2022, Amgen annonce l'acquisition pour 27,8 milliards de dollars de Horizon Therapeutics, spécialisée notamment contre la goutte et la maladie oculaire thyroïdienne[10].
+En 2013, Amgen annonce le rachat d'Onyx Pharmaceuticals pour 10,4 milliards de dollars, Onyx Pharmaceuticals étant spécialisé dans l'oncologie.
+En septembre 2015, Amgen acquiert l'entreprise de biotechnologie Dezima Pharma, qui possède des traitements luttant contre le cholestérol  pour 300 millions de dollars.
+En 2016, elle est la cible d'une plainte du laboratoire pharmaceutique AbbVie, visant à l'empêcher de distribuer l'Amgevita, un médicament similaire à l'anti-inflammatoire Humira, nom commercial de la molécule Adalimumab. L'Amgevita est disponible en France.
+En août 2019, Amgen annonce l'acquisition du traitement Otezla à Celgene pour 13,4 milliards de dollars pour permettre l'opération d'acquisition de Celgene par Bristol-Myers Squibb.
+En août 2022, Amgen annonce l'acquisition pour 3,7 milliards de dollars de ChemoCentryx, une entreprise spécialisée contre les troubles inflammatoires. En décembre 2022, Amgen annonce l'acquisition pour 27,8 milliards de dollars de Horizon Therapeutics, spécialisée notamment contre la goutte et la maladie oculaire thyroïdienne.
 </t>
         </is>
       </c>
@@ -550,7 +564,9 @@
           <t>Produits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Epogen (époétine, traitement de l'anémie).
 Aranesp (darbepoétine alpha, traitement de l'anémie).
@@ -593,9 +609,11 @@
           <t>Actionnaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des principaux actionnaires au 16 octobre 2021[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des principaux actionnaires au 16 octobre 2021.
 </t>
         </is>
       </c>
@@ -626,13 +644,99 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activités de lobbying
-Aux États-Unis
-Selon le Center for Responsive Politics, les dépenses de lobbying d'Amgen aux États-Unis s'élèvent en 2017 à 10 620 000 dollars[12].
-Auprès des institutions de l'Union européenne
-Amgen est inscrit depuis 2011 au registre de transparence des représentants d'intérêts auprès de la Commission européenne. Il déclare en 2017 pour cette activité des dépenses annuelles d'un montant compris entre 1 250 000 et 1 500 000 euros[13].
-En France
-Pour l'année 2017, Amgen déclare à la Haute Autorité pour la transparence de la vie publique exercer des activités de lobbying en France pour un montant qui n'excède pas 200 000 euros[14].
+          <t>Activités de lobbying</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Aux États-Unis</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le Center for Responsive Politics, les dépenses de lobbying d'Amgen aux États-Unis s'élèvent en 2017 à 10 620 000 dollars.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Amgen</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amgen</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Communication</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Activités de lobbying</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Auprès des institutions de l'Union européenne</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amgen est inscrit depuis 2011 au registre de transparence des représentants d'intérêts auprès de la Commission européenne. Il déclare en 2017 pour cette activité des dépenses annuelles d'un montant compris entre 1 250 000 et 1 500 000 euros.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Amgen</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amgen</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Communication</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Activités de lobbying</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour l'année 2017, Amgen déclare à la Haute Autorité pour la transparence de la vie publique exercer des activités de lobbying en France pour un montant qui n'excède pas 200 000 euros.
 </t>
         </is>
       </c>
